--- a/GiftStore/wwwroot/GiftCards/GiftCards.xlsx/GiftCards.xlsx
+++ b/GiftStore/wwwroot/GiftCards/GiftCards.xlsx/GiftCards.xlsx
@@ -1,127 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c# codes\api5\GiftStore\GiftStore\wwwroot\GiftCards\GiftCards.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83E8AF5-0CB9-493F-9EAA-C0CED14DAED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="GiftCards" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="GiftCards" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>IVKey</t>
-  </si>
-  <si>
-    <t>3325242894</t>
-  </si>
-  <si>
-    <t>UgSNVSnQ/Cdnz11jyiv/Qg==</t>
-  </si>
-  <si>
-    <t>8XQAJ1hC7So4L3NGN2oHNKAqqnOKb1RHjQaqCi7rEzQ=</t>
-  </si>
-  <si>
-    <t>bV/QnqaPYPB3ZQpdkCqRgA==</t>
-  </si>
-  <si>
-    <t>6410444722</t>
-  </si>
-  <si>
-    <t>78UTr0M9l+C5QwL70dwyNg==</t>
-  </si>
-  <si>
-    <t>IMhPkh7+Fj5Ouf9FScANpHG/V/J0hP6i8CWE4mgQsms=</t>
-  </si>
-  <si>
-    <t>5IpMh1jqP835A10ywuZzxQ==</t>
-  </si>
-  <si>
-    <t>1233729366</t>
-  </si>
-  <si>
-    <t>3/W5bo3m+VdMXS7vML9kkw==</t>
-  </si>
-  <si>
-    <t>G56jBfYaWXERlx2QGxDvL37N0AlrAGbZPNpE8zTL2g8=</t>
-  </si>
-  <si>
-    <t>o0hrhe+Vp7JhI+3VsrqCvw==</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>label</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Result</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IVKey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3325242894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UgSNVSnQ/Cdnz11jyiv/Qg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8XQAJ1hC7So4L3NGN2oHNKAqqnOKb1RHjQaqCi7rEzQ=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bV/QnqaPYPB3ZQpdkCqRgA==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6410444722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78UTr0M9l+C5QwL70dwyNg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMhPkh7+Fj5Ouf9FScANpHG/V/J0hP6i8CWE4mgQsms=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5IpMh1jqP835A10ywuZzxQ==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1233729366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/W5bo3m+VdMXS7vML9kkw==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G56jBfYaWXERlx2QGxDvL37N0AlrAGbZPNpE8zTL2g8=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o0hrhe+Vp7JhI+3VsrqCvw==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4794939093</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3s/T6zVujVZr6NjCAgQjZg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wa/z9E1yNB+DBvq95t98UnRmS+/9QDt4jDKKwBmaAAE=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fpdFT7O1R/06RuC68wDJIQ==</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,84 +423,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E4"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E2" sqref="E2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/GiftStore/wwwroot/GiftCards/GiftCards.xlsx/GiftCards.xlsx
+++ b/GiftStore/wwwroot/GiftCards/GiftCards.xlsx/GiftCards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c# codes\api5\GiftStore\GiftStore\wwwroot\GiftCards\GiftCards.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83E8AF5-0CB9-493F-9EAA-C0CED14DAED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD8F5AF-8DDB-43E2-A3DB-12C3ADCD9B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -38,52 +38,55 @@
     <x:t>IVKey</x:t>
   </x:si>
   <x:si>
-    <x:t>3325242894</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UgSNVSnQ/Cdnz11jyiv/Qg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8XQAJ1hC7So4L3NGN2oHNKAqqnOKb1RHjQaqCi7rEzQ=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bV/QnqaPYPB3ZQpdkCqRgA==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6410444722</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78UTr0M9l+C5QwL70dwyNg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IMhPkh7+Fj5Ouf9FScANpHG/V/J0hP6i8CWE4mgQsms=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5IpMh1jqP835A10ywuZzxQ==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1233729366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3/W5bo3m+VdMXS7vML9kkw==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G56jBfYaWXERlx2QGxDvL37N0AlrAGbZPNpE8zTL2g8=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o0hrhe+Vp7JhI+3VsrqCvw==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4794939093</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3s/T6zVujVZr6NjCAgQjZg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wa/z9E1yNB+DBvq95t98UnRmS+/9QDt4jDKKwBmaAAE=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fpdFT7O1R/06RuC68wDJIQ==</x:t>
+    <x:t>7339136656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FrvQJbfb6UkaDJKkvA2xEA==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a3hduDNNoxAh31fzM0N6NfzNnfXd7gE1L3qWqi8N2jQ=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JpY9ogRzF9Bu14nr015ERA==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3344531741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xqgT3dm6Be8fCQdU837QwQ==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7GIvJw7iKd7JdUTyV+WrovM7mHgxTlRdl5jksIp1BJ8=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/b8ttdl/P4q8aKuceo4BjA==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-01-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9806968175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kr3BjnwSJk0EyjrPibIB5Q==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VGFF8GBnhl2d2LTaRqGjWUEgS50/2OdaXf+jGttdRWw=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>my0g/PBeqCH03PZfPokZSw==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3920260279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PMlRKrTcE4O1eJLTsGfEOA==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xKlXmp3lEhcIVChWJeJl6QpLeJ8qJaxpxfCfM5nngW0=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QATUO/uaxhOJr4ygRqcavQ==</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -427,15 +430,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E4"/>
+  <x:dimension ref="A1:E1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2"/>
+      <x:selection activeCell="G10" sqref="G10 A2:G10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -452,9 +455,9 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:6">
       <x:c r="A2" s="0">
-        <x:v>42</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>5</x:v>
@@ -469,9 +472,9 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:6">
       <x:c r="A3" s="0">
-        <x:v>43</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>9</x:v>
@@ -485,39 +488,48 @@
       <x:c r="E3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:6">
       <x:c r="A4" s="0">
-        <x:v>44</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
     </x:row>
-    <x:row r="5" spans="1:5">
+    <x:row r="5" spans="1:6">
       <x:c r="A5" s="0">
-        <x:v>63</x:v>
+        <x:v>1147</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
